--- a/Data/Predictions/Random Forest/Random_Forest_Classifier_Predictions_Individual_Features_PCA.xlsx
+++ b/Data/Predictions/Random Forest/Random_Forest_Classifier_Predictions_Individual_Features_PCA.xlsx
@@ -1239,7 +1239,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -7584,7 +7584,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -11283,7 +11283,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -11472,7 +11472,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -13443,7 +13443,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -13632,7 +13632,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -15522,7 +15522,7 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -15738,7 +15738,7 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -16278,7 +16278,7 @@
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -16359,7 +16359,7 @@
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -18087,7 +18087,7 @@
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -19086,7 +19086,7 @@
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -19680,7 +19680,7 @@
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -19950,7 +19950,7 @@
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -20274,7 +20274,7 @@
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -20571,7 +20571,7 @@
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -20814,7 +20814,7 @@
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -22326,7 +22326,7 @@
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -23271,7 +23271,7 @@
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -23946,7 +23946,7 @@
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -24729,7 +24729,7 @@
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -24864,7 +24864,7 @@
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -25323,7 +25323,7 @@
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -25755,7 +25755,7 @@
       </c>
       <c r="E938" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="E949" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="E981" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -26943,7 +26943,7 @@
       </c>
       <c r="E982" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -26970,7 +26970,7 @@
       </c>
       <c r="E983" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="E1053" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -29103,7 +29103,7 @@
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -30993,7 +30993,7 @@
       </c>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -31290,7 +31290,7 @@
       </c>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -32397,7 +32397,7 @@
       </c>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -34449,7 +34449,7 @@
       </c>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -34935,7 +34935,7 @@
       </c>
       <c r="E1278" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -35205,7 +35205,7 @@
       </c>
       <c r="E1288" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -35394,7 +35394,7 @@
       </c>
       <c r="E1295" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -36096,7 +36096,7 @@
       </c>
       <c r="E1321" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="E1325" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -36312,7 +36312,7 @@
       </c>
       <c r="E1329" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -37527,7 +37527,7 @@
       </c>
       <c r="E1374" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -38202,7 +38202,7 @@
       </c>
       <c r="E1399" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -39525,7 +39525,7 @@
       </c>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -40011,7 +40011,7 @@
       </c>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -40065,7 +40065,7 @@
       </c>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -40254,7 +40254,7 @@
       </c>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
